--- a/py220108_python3d/day113_py220115/stem1302_hw_2_KevinLiu.xlsx
+++ b/py220108_python3d/day113_py220115/stem1302_hw_2_KevinLiu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\PycharmProjects\stem1401py\py220108_python3d\day113_py220115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770179E-4D5B-4847-B3E1-E9519F9E6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B80FD33-FD87-4018-A91B-813BD825B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9CD998E0-C8CB-4049-853B-C3EF70511C9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9CD998E0-C8CB-4049-853B-C3EF70511C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -182,6 +182,36 @@
 ORDER_PAID = "order is paid"
 ORDER_UNPAID = "order is not paid"
 ORDER_CANCELLED = "order is cancelled"</t>
+  </si>
+  <si>
+    <t>Test the order generation functionality of the online store</t>
+  </si>
+  <si>
+    <t>LAST_ORDER_NUMBER = 202112260001</t>
+  </si>
+  <si>
+    <t>202112260001,</t>
+  </si>
+  <si>
+    <t>generate next order number for order2</t>
+  </si>
+  <si>
+    <t>print out order number of order1</t>
+  </si>
+  <si>
+    <t>order2.LAST_ORDER_NUMBER = 202112260002,</t>
+  </si>
+  <si>
+    <t>print out order number of order2</t>
+  </si>
+  <si>
+    <t>202112260002,</t>
+  </si>
+  <si>
+    <t>order1</t>
+  </si>
+  <si>
+    <t>order2</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -423,6 +453,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -496,6 +536,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -507,28 +562,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FCF2C7-485F-4D6E-A19E-B86570D5CD9B}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,50 +889,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="43"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="43"/>
-      <c r="J2" s="49">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K2" s="45"/>
+      <c r="J2" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -915,11 +948,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="5"/>
@@ -944,25 +977,25 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="41">
-        <v>44583</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="50">
+        <v>44581</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="42" t="s">
         <v>11</v>
       </c>
@@ -985,98 +1018,98 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -1087,190 +1120,207 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10">
+        <v>6</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="19" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1295,17 +1345,14 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
@@ -1326,6 +1373,10 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1336,57 +1387,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F60820-CF8D-44F2-9BFC-810E153F2549}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="43"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="43"/>
-      <c r="J2" s="49">
+      <c r="J2" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -1402,11 +1453,11 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="13"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -1429,25 +1480,25 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="41">
-        <v>44583</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="50">
+        <v>44587</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="42" t="s">
         <v>41</v>
       </c>
@@ -1470,223 +1521,207 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="A14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="37">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -1695,6 +1730,13 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1704,55 +1746,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B73A240-6DD4-4091-8E08-DBCC68F73F76}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="43"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="43"/>
-      <c r="J2" s="49">
+      <c r="J2" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -1768,11 +1815,11 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="13"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -1794,27 +1841,29 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="41">
-        <v>44583</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="50">
+        <v>44587</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="42"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1834,253 +1883,244 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="4"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="10">
-        <v>4</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="10">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
+  <mergeCells count="40">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2090,7 +2130,13 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/py220108_python3d/day113_py220115/stem1302_hw_2_KevinLiu.xlsx
+++ b/py220108_python3d/day113_py220115/stem1302_hw_2_KevinLiu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\PycharmProjects\stem1401py\py220108_python3d\day113_py220115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B80FD33-FD87-4018-A91B-813BD825B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677C6BD-64FC-4F2B-85E0-231E796BB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9CD998E0-C8CB-4049-853B-C3EF70511C9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9CD998E0-C8CB-4049-853B-C3EF70511C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -465,16 +465,60 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,51 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FCF2C7-485F-4D6E-A19E-B86570D5CD9B}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,17 +889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="19" t="s">
         <v>38</v>
       </c>
@@ -910,29 +910,29 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="20"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="45">
+      <c r="I2" s="18"/>
+      <c r="J2" s="22">
         <v>1.2</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -948,10 +948,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
@@ -977,29 +977,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="50">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <v>44581</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="42" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
@@ -1018,35 +1018,35 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="19"/>
@@ -1058,14 +1058,14 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="19"/>
@@ -1077,14 +1077,14 @@
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="34" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="19"/>
@@ -1096,14 +1096,14 @@
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="19"/>
@@ -1120,7 +1120,7 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="34" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="19"/>
@@ -1137,7 +1137,7 @@
       <c r="F14" s="10">
         <v>6</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="34" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="19"/>
@@ -1176,59 +1176,59 @@
       <c r="K16" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="19"/>
@@ -1238,20 +1238,20 @@
       <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="34" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="19"/>
@@ -1261,20 +1261,20 @@
       <c r="A22" s="10">
         <v>3</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="34" t="s">
         <v>11</v>
       </c>
       <c r="J22" s="19"/>
@@ -1282,65 +1282,69 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
@@ -1353,768 +1357,6 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F60820-CF8D-44F2-9BFC-810E153F2549}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="13"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="50">
-        <v>44587</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B73A240-6DD4-4091-8E08-DBCC68F73F76}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="13"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="50">
-        <v>44587</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10">
-        <v>3</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
@@ -2139,4 +1381,762 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F60820-CF8D-44F2-9BFC-810E153F2549}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="13"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
+        <v>44587</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B73A240-6DD4-4091-8E08-DBCC68F73F76}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="13"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
+        <v>44587</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>